--- a/Melon.xlsx
+++ b/Melon.xlsx
@@ -181,19 +181,19 @@
     <t>김민석 (멜로망스)</t>
   </si>
   <si>
-    <t>태연 (TAEYON)</t>
+    <t>태연 (TAEYEON)</t>
   </si>
   <si>
     <t>IVE (아이브)</t>
   </si>
   <si>
-    <t>GOT theba</t>
+    <t>GOT the beat</t>
   </si>
   <si>
     <t>탑현</t>
   </si>
   <si>
-    <t>sokdm</t>
+    <t>sokodomo</t>
   </si>
   <si>
     <t>BE'O (비오)</t>
@@ -208,16 +208,16 @@
     <t>경서예지, 전건호</t>
   </si>
   <si>
-    <t>aesp</t>
+    <t>aespa</t>
   </si>
   <si>
     <t>아이유</t>
   </si>
   <si>
-    <t>케이시 (Kasy)</t>
-  </si>
-  <si>
-    <t>The KidLAROI,JustnBbr</t>
+    <t>케이시 (Kassy)</t>
+  </si>
+  <si>
+    <t>The Kid LAROI, Justin Bieber</t>
   </si>
   <si>
     <t>노을</t>
@@ -229,13 +229,13 @@
     <t>베이식 (Basick)</t>
   </si>
   <si>
-    <t>에픽하이 (EPIKHG)</t>
+    <t>에픽하이 (EPIK HIGH)</t>
   </si>
   <si>
     <t>방탄소년단</t>
   </si>
   <si>
-    <t>먼데이 키즈(MondayKiz)</t>
+    <t>먼데이 키즈 (Monday Kiz)</t>
   </si>
   <si>
     <t>이승윤</t>
@@ -247,19 +247,19 @@
     <t>10CM</t>
   </si>
   <si>
-    <t>비 (BI)</t>
-  </si>
-  <si>
-    <t>주시크 (Josiq)</t>
-  </si>
-  <si>
-    <t>Coldpay, 방탄소년단</t>
-  </si>
-  <si>
-    <t>휘인 (WheIn)</t>
-  </si>
-  <si>
-    <t>디핵 (D-Hack),PATEKO파테코</t>
+    <t>비비 (BIBI)</t>
+  </si>
+  <si>
+    <t>주시크 (Joosiq)</t>
+  </si>
+  <si>
+    <t>Coldplay, 방탄소년단</t>
+  </si>
+  <si>
+    <t>휘인 (Whee In)</t>
+  </si>
+  <si>
+    <t>디핵 (D-Hack), PATEKO (파테코)</t>
   </si>
   <si>
     <t>Apink (에이핑크)</t>
